--- a/analytics-model/src/analytics-model.xlsx
+++ b/analytics-model/src/analytics-model.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="202">
+  <si>
+    <t>Ontology Name</t>
+  </si>
   <si>
     <t>Individual Name</t>
   </si>
@@ -23,12 +26,18 @@
     <t>Class Name</t>
   </si>
   <si>
-    <t>Ontology Name</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>Namespace URI</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
     <t>Individual Id</t>
   </si>
   <si>
@@ -38,102 +47,102 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Namespace URI</t>
-  </si>
-  <si>
-    <t>Prefix</t>
+    <t>An ontology developed by Google, Yahoo!, Microsoft and others to describe people, places, and things commonly found on the web.</t>
   </si>
   <si>
     <t>The Amazon online shopping site</t>
   </si>
   <si>
-    <t>Schema.org</t>
-  </si>
-  <si>
     <t>app:AmazonStore</t>
   </si>
   <si>
+    <t>Class Id</t>
+  </si>
+  <si>
     <t>schema:WebApplication</t>
   </si>
   <si>
-    <t>Class Id</t>
+    <t>Subclass Of</t>
   </si>
   <si>
     <t>Apple Store</t>
   </si>
   <si>
-    <t>Subclass Of</t>
-  </si>
-  <si>
     <t>The Apple online store</t>
   </si>
   <si>
     <t>app:AppleStore</t>
   </si>
   <si>
+    <t>Google Store</t>
+  </si>
+  <si>
+    <t>http://schema.org/</t>
+  </si>
+  <si>
+    <t>The Google online store</t>
+  </si>
+  <si>
+    <t>app:GoogleStore</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Google Store</t>
-  </si>
-  <si>
-    <t>The Google online store</t>
-  </si>
-  <si>
-    <t>app:GoogleStore</t>
-  </si>
-  <si>
     <t>The base class for all kinds of actions that have either already occurred, are in the process of occurring, or may occur in the future.</t>
   </si>
   <si>
+    <t>schema</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
+    <t>The unit of time measured in days</t>
+  </si>
+  <si>
+    <t>konig:Day</t>
+  </si>
+  <si>
+    <t>konig:TimeUnit</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>The unit of time measured in months</t>
+  </si>
+  <si>
+    <t>konig:Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>schema:Action</t>
   </si>
   <si>
-    <t>The unit of time measured in days</t>
+    <t>The unit of time measured in years</t>
+  </si>
+  <si>
+    <t>konig:Year</t>
   </si>
   <si>
     <t>TradeAction</t>
   </si>
   <si>
-    <t>konig:Day</t>
-  </si>
-  <si>
     <t>The act of participating in an exchange of goods and services for monetary compensation. An agent trades an object, product or service with a participant in exchange for a one time or periodic payment.</t>
   </si>
   <si>
-    <t>konig:TimeUnit</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>The unit of time measured in months</t>
-  </si>
-  <si>
-    <t>An ontology developed by Google, Yahoo!, Microsoft and others to describe people, places, and things commonly found on the web.</t>
-  </si>
-  <si>
-    <t>konig:Month</t>
+    <t>Konig Core Ontology</t>
   </si>
   <si>
     <t>schema:TradeAction</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>The unit of time measured in years</t>
-  </si>
-  <si>
     <t>BuyAction</t>
   </si>
   <si>
-    <t>konig:Year</t>
-  </si>
-  <si>
     <t>The act of giving money to a seller in exchange for goods or services rendered. An agent buys an object, product, or service from a seller for a price. Reciprocal of SellAction.</t>
   </si>
   <si>
@@ -143,7 +152,7 @@
     <t>Person</t>
   </si>
   <si>
-    <t>http://schema.org/</t>
+    <t>A vocabulary for enriched semantic models that enable ontology-based engineering solutions.</t>
   </si>
   <si>
     <t>The class of all individual people.</t>
@@ -164,15 +173,15 @@
     <t>owl:NamedIndividual</t>
   </si>
   <si>
-    <t>schema</t>
-  </si>
-  <si>
     <t>Landform</t>
   </si>
   <si>
     <t>A landform or physical feature. Landform elements include mountains, plains, lakes, rivers, seascape and oceanic waterbody interface features such as bays, peninsulas, seas and so forth, including sub-aqueous terrain features such as submersed mountain ranges, volcanoes, and the great ocean basins.</t>
   </si>
   <si>
+    <t>http://www.konig.io/ns/core/</t>
+  </si>
+  <si>
     <t>schema:Landform</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
     <t>A generic administrative area.  This is the base class for more specific types like City, State, Country, etc.</t>
   </si>
   <si>
-    <t>Konig Core Ontology</t>
-  </si>
-  <si>
     <t>schema:AdministrativeArea</t>
   </si>
   <si>
@@ -215,9 +221,6 @@
     <t>schema:State</t>
   </si>
   <si>
-    <t>A vocabulary for enriched semantic models that enable ontology-based engineering solutions.</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
     <t>Creative Work</t>
   </si>
   <si>
+    <t>konig</t>
+  </si>
+  <si>
     <t>The most generic kind of creative work, including books, movies, photographs, software programs, etc.</t>
   </si>
   <si>
@@ -239,9 +245,6 @@
     <t>Software Application</t>
   </si>
   <si>
-    <t>http://www.konig.io/ns/core/</t>
-  </si>
-  <si>
     <t>The most generic kind of software application incuding mobile apps, web apps, video games etc.</t>
   </si>
   <si>
@@ -254,12 +257,21 @@
     <t>The class of all web applications.</t>
   </si>
   <si>
+    <t>RDF Syntax</t>
+  </si>
+  <si>
+    <t>The core RDF vocabulary</t>
+  </si>
+  <si>
     <t>Time Interval</t>
   </si>
   <si>
     <t>An interval of time</t>
   </si>
   <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
     <t>konig:TimeInterval</t>
   </si>
   <si>
@@ -269,18 +281,6 @@
     <t>The class of all time units.</t>
   </si>
   <si>
-    <t>konig</t>
-  </si>
-  <si>
-    <t>RDF Syntax</t>
-  </si>
-  <si>
-    <t>The core RDF vocabulary</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-  </si>
-  <si>
     <t>rdf</t>
   </si>
   <si>
@@ -332,337 +332,271 @@
     <t>sh</t>
   </si>
   <si>
+    <t>Shape Id</t>
+  </si>
+  <si>
+    <t>Scope Class</t>
+  </si>
+  <si>
     <t>Geonames Data</t>
   </si>
   <si>
+    <t>Datasource</t>
+  </si>
+  <si>
     <t>The namespace for places in the world as defined by GeoNames.</t>
   </si>
   <si>
     <t>http://sws.geonames.org/</t>
   </si>
   <si>
-    <t>Shape Id</t>
-  </si>
-  <si>
-    <t>Scope Class</t>
-  </si>
-  <si>
-    <t>Media Type</t>
-  </si>
-  <si>
-    <t>Aggregation Of</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
+    <t>shape:BuyActionShape</t>
+  </si>
+  <si>
+    <t>schema:BuyAction</t>
+  </si>
+  <si>
     <t>Software Applications</t>
   </si>
   <si>
+    <t>BigQueryTable</t>
+  </si>
+  <si>
     <t>A controlled vocabulary for software applications, including web properties like the Amazon Online Store or Google Online Store.</t>
   </si>
   <si>
     <t>http://example.com/ns/app/</t>
   </si>
   <si>
-    <t>Roll-up By</t>
-  </si>
-  <si>
-    <t>schema1:BuyActionShape</t>
-  </si>
-  <si>
-    <t>schema:BuyAction</t>
-  </si>
-  <si>
-    <t>application/vnd.example.v1.schema.buyaction</t>
+    <t>shape:AdministrativeAreaShape</t>
+  </si>
+  <si>
+    <t>shape:PersonShape</t>
   </si>
   <si>
     <t>app</t>
   </si>
   <si>
-    <t>schema1:AdministrativeAreaShape</t>
-  </si>
-  <si>
-    <t>Schema.org Shapes (version 1)</t>
-  </si>
-  <si>
-    <t>A namespace for data shape instances (version 1)</t>
-  </si>
-  <si>
-    <t>schema1:PersonShape</t>
-  </si>
-  <si>
-    <t>http://example.com/shapes/v1/schema/</t>
-  </si>
-  <si>
-    <t>schema1:PlaceShape</t>
-  </si>
-  <si>
-    <t>fact1:SalesByCityShape</t>
-  </si>
-  <si>
-    <t>konig:Fact</t>
-  </si>
-  <si>
-    <t>fact1:SalesByStateShape</t>
-  </si>
-  <si>
-    <t>schema1</t>
-  </si>
-  <si>
-    <t>Schema.org Shapes (version 2)</t>
-  </si>
-  <si>
-    <t>A namespace for data shape instances (version 2)</t>
+    <t>Fact Ontology</t>
+  </si>
+  <si>
+    <t>shape:PlaceShape</t>
+  </si>
+  <si>
+    <t>An ontology that describes the various kinds of facts that can be produced by an OLAP engine.</t>
+  </si>
+  <si>
+    <t>shape:SalesByCityShape</t>
+  </si>
+  <si>
+    <t>fact:SalesByCity</t>
+  </si>
+  <si>
+    <t>shape:WeekMonthYearShape</t>
+  </si>
+  <si>
+    <t>http://example.com/ns/fact/</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>Example Shapes</t>
+  </si>
+  <si>
+    <t>A namespace for data shapes</t>
+  </si>
+  <si>
+    <t>http://example.com/shapes/</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Alias Namespace</t>
+  </si>
+  <si>
+    <t>A namespace that contains alternative names for properties.</t>
+  </si>
+  <si>
+    <t>http://example.com/ns/alias/</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>Property Id</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>Min Count</t>
+  </si>
+  <si>
+    <t>Max Count</t>
+  </si>
+  <si>
+    <t>Value Class</t>
+  </si>
+  <si>
+    <t>Stereotype</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <t>Value In</t>
+  </si>
+  <si>
+    <t>schema:agent</t>
+  </si>
+  <si>
+    <t>The person who made the purchase.</t>
+  </si>
+  <si>
+    <t>schema:object</t>
+  </si>
+  <si>
+    <t>The product that was purchased.</t>
+  </si>
+  <si>
+    <t>shape:ProductShape</t>
+  </si>
+  <si>
+    <t>schema:price</t>
+  </si>
+  <si>
+    <t>The price paid for the product in US dollars.</t>
+  </si>
+  <si>
+    <t>xsd:float</t>
+  </si>
+  <si>
+    <t>schema:endTime</t>
+  </si>
+  <si>
+    <t>The date/time when the buy action ended.</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>schema:location</t>
+  </si>
+  <si>
+    <t>The geographic location where the purchase occurred.</t>
+  </si>
+  <si>
+    <t>unbounded</t>
+  </si>
+  <si>
+    <t>schema:instrument</t>
+  </si>
+  <si>
+    <t>The web store that the agent used to make the purchase.</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+  </si>
+  <si>
+    <t>konig:anonymousId</t>
+  </si>
+  <si>
+    <t>An anonymous identifier for the person who made the purchase.</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>konig:id</t>
+  </si>
+  <si>
+    <t>A URI that identifies the product.</t>
+  </si>
+  <si>
+    <t>schema:name</t>
+  </si>
+  <si>
+    <t>The name of the product, suitable for display in a user interface.</t>
+  </si>
+  <si>
+    <t>The URI that identifies the place (city, state, country, or continent).</t>
+  </si>
+  <si>
+    <t>rdf:type</t>
+  </si>
+  <si>
+    <t>The type of administrative area</t>
+  </si>
+  <si>
+    <t>The name of the administrative area</t>
+  </si>
+  <si>
+    <t>schema:containedInPlace</t>
+  </si>
+  <si>
+    <t>A larger place within which this place is contained.</t>
+  </si>
+  <si>
+    <t>?x</t>
+  </si>
+  <si>
+    <t>konig:totalCount</t>
+  </si>
+  <si>
+    <t>The total number of sales by users from a given city.</t>
+  </si>
+  <si>
+    <t>xsd:int</t>
+  </si>
+  <si>
+    <t>konig:measure</t>
+  </si>
+  <si>
+    <t>alias:city</t>
+  </si>
+  <si>
+    <t>The city dimension</t>
+  </si>
+  <si>
+    <t>konig:dimension</t>
+  </si>
+  <si>
+    <t>?x.location[type City]</t>
   </si>
   <si>
     <t>alias:state</t>
   </si>
   <si>
-    <t>http://example.com/shapes/v2/schema/</t>
-  </si>
-  <si>
-    <t>fact1:SalesByCountryShape</t>
-  </si>
-  <si>
-    <t>schema2</t>
+    <t>The state attribute</t>
+  </si>
+  <si>
+    <t>konig:attribute</t>
+  </si>
+  <si>
+    <t>?x.location[type State]</t>
   </si>
   <si>
     <t>alias:country</t>
   </si>
   <si>
-    <t>Schema.org Shapes (version 3)</t>
-  </si>
-  <si>
-    <t>fact1:SalesByContinentShape</t>
-  </si>
-  <si>
-    <t>A namespace for data shape instances (version 3)</t>
-  </si>
-  <si>
-    <t>http://example.com/shapes/v3/schema/</t>
+    <t>The country attribute</t>
+  </si>
+  <si>
+    <t>?x.location[type Country]</t>
   </si>
   <si>
     <t>alias:continent</t>
   </si>
   <si>
-    <t>schema3</t>
-  </si>
-  <si>
-    <t>konig1:WeekMonthYearShape</t>
-  </si>
-  <si>
-    <t>Fact Ontology</t>
-  </si>
-  <si>
-    <t>An ontology that describes the various kinds of facts that can be produced by an OLAP engine.</t>
-  </si>
-  <si>
-    <t>http://example.com/ns/fact/</t>
-  </si>
-  <si>
-    <t>fact</t>
-  </si>
-  <si>
-    <t>Fact Data Shapes (version 1)</t>
-  </si>
-  <si>
-    <t>A namespace for data shapes that define the structure of various facts (version 1)</t>
-  </si>
-  <si>
-    <t>http://example.com/shapes/v1/fact/</t>
-  </si>
-  <si>
-    <t>fact1</t>
-  </si>
-  <si>
-    <t>Alias Namespace</t>
-  </si>
-  <si>
-    <t>A namespace that contains alternative names for properties.</t>
-  </si>
-  <si>
-    <t>http://example.com/ns/alias/</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>Konig Data Shapes (version 1)</t>
-  </si>
-  <si>
-    <t>A namespace for shapes from the Konig Core Ontology (version 1)</t>
-  </si>
-  <si>
-    <t>http://example.com/shapes/v1/konig/</t>
-  </si>
-  <si>
-    <t>konig1</t>
-  </si>
-  <si>
-    <t>Property Id</t>
-  </si>
-  <si>
-    <t>Value Type</t>
-  </si>
-  <si>
-    <t>Min Count</t>
-  </si>
-  <si>
-    <t>Max Count</t>
-  </si>
-  <si>
-    <t>Value Class</t>
-  </si>
-  <si>
-    <t>Stereotype</t>
-  </si>
-  <si>
-    <t>From Input</t>
-  </si>
-  <si>
-    <t>Input Variable</t>
-  </si>
-  <si>
-    <t>Value In</t>
-  </si>
-  <si>
-    <t>Equivalent Path</t>
-  </si>
-  <si>
-    <t>schema:agent</t>
-  </si>
-  <si>
-    <t>The person who made the purchase.</t>
-  </si>
-  <si>
-    <t>schema:object</t>
-  </si>
-  <si>
-    <t>The product that was purchased.</t>
-  </si>
-  <si>
-    <t>schema1:ProductShape</t>
-  </si>
-  <si>
-    <t>schema:price</t>
-  </si>
-  <si>
-    <t>The price paid for the product in US dollars.</t>
-  </si>
-  <si>
-    <t>xsd:float</t>
-  </si>
-  <si>
-    <t>schema:endTime</t>
-  </si>
-  <si>
-    <t>The date/time when the buy action ended.</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>schema:location</t>
-  </si>
-  <si>
-    <t>The geographic location where the purchase occurred.</t>
-  </si>
-  <si>
-    <t>unbounded</t>
-  </si>
-  <si>
-    <t>schema:instrument</t>
-  </si>
-  <si>
-    <t>The web store that the agent used to make the purchase.</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-  </si>
-  <si>
-    <t>konig:anonymousId</t>
-  </si>
-  <si>
-    <t>An anonymous identifier for the person who made the purchase.</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-  </si>
-  <si>
-    <t>konig:id</t>
-  </si>
-  <si>
-    <t>A URI that identifies the product.</t>
-  </si>
-  <si>
-    <t>schema:name</t>
-  </si>
-  <si>
-    <t>The name of the product, suitable for display in a user interface.</t>
-  </si>
-  <si>
-    <t>The URI that identifies the place (city, state, country, or continent).</t>
-  </si>
-  <si>
-    <t>rdf:type</t>
-  </si>
-  <si>
-    <t>The type of administrative area</t>
-  </si>
-  <si>
-    <t>The name of the administrative area</t>
-  </si>
-  <si>
-    <t>schema:containedInPlace</t>
-  </si>
-  <si>
-    <t>A larger place within which this place is contained.</t>
-  </si>
-  <si>
-    <t>konig:totalCount</t>
-  </si>
-  <si>
-    <t>The total number of sales by users from a given city.</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>konig:measure</t>
-  </si>
-  <si>
-    <t>alias:city</t>
-  </si>
-  <si>
-    <t>The city dimension</t>
-  </si>
-  <si>
-    <t>konig:dimension</t>
-  </si>
-  <si>
-    <t>/location[type City]</t>
-  </si>
-  <si>
-    <t>The state attribute</t>
-  </si>
-  <si>
-    <t>konig:attribute</t>
-  </si>
-  <si>
-    <t>/city/containedInPlace</t>
-  </si>
-  <si>
-    <t>The country attribute</t>
-  </si>
-  <si>
-    <t>/state/containedInPlace</t>
-  </si>
-  <si>
     <t>The continent attribute</t>
   </si>
   <si>
-    <t>/country/containedInPlace</t>
+    <t>?x.location[type Continent]</t>
   </si>
   <si>
     <t>konig:timeInterval</t>
@@ -706,12 +640,12 @@
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -753,99 +687,94 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -892,418 +821,377 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>112</v>
+      <c r="B9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="C10" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="18" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C13" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="B15" s="15"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="B16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="B17" s="15"/>
     </row>
     <row r="18">
       <c r="B18" s="15"/>
@@ -4166,15 +4054,6 @@
     </row>
     <row r="971">
       <c r="B971" s="15"/>
-    </row>
-    <row r="972">
-      <c r="B972" s="15"/>
-    </row>
-    <row r="973">
-      <c r="B973" s="15"/>
-    </row>
-    <row r="974">
-      <c r="B974" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4191,12 +4070,8 @@
     <hyperlink r:id="rId11" ref="C11"/>
     <hyperlink r:id="rId12" ref="C12"/>
     <hyperlink r:id="rId13" ref="C13"/>
-    <hyperlink r:id="rId14" ref="C14"/>
-    <hyperlink r:id="rId15" ref="C15"/>
-    <hyperlink r:id="rId16" ref="C16"/>
-    <hyperlink r:id="rId17" ref="C17"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -4217,251 +4092,251 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -7453,122 +7328,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7592,139 +7467,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>81</v>
+      <c r="C7" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7736,8 +7574,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -7748,119 +7588,113 @@
     <col customWidth="1" min="4" max="4" width="31.0"/>
     <col customWidth="1" min="7" max="7" width="23.43"/>
     <col customWidth="1" min="9" max="9" width="21.0"/>
-    <col customWidth="1" min="10" max="10" width="16.43"/>
-    <col customWidth="1" min="12" max="12" width="29.57"/>
+    <col customWidth="1" min="11" max="11" width="29.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>163</v>
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="7">
         <v>1.0</v>
       </c>
       <c r="F2" s="20">
         <v>1.0</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="A3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="7">
         <v>1.0</v>
       </c>
       <c r="F3" s="20">
         <v>1.0</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="A4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="7">
         <v>1.0</v>
       </c>
       <c r="F4" s="20">
@@ -7868,19 +7702,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="A5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="7">
         <v>1.0</v>
       </c>
       <c r="F5" s="20">
@@ -7888,60 +7722,60 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="A6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="7">
         <v>1.0</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="A7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="7">
         <v>1.0</v>
       </c>
       <c r="F7" s="20">
         <v>1.0</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E8" s="21">
         <v>1.0</v>
@@ -7969,20 +7803,19 @@
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E9" s="25">
         <v>1.0</v>
@@ -8010,20 +7843,19 @@
       <c r="X9" s="28"/>
       <c r="Y9" s="28"/>
       <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E10" s="25">
         <v>1.0</v>
@@ -8051,20 +7883,19 @@
       <c r="X10" s="28"/>
       <c r="Y10" s="28"/>
       <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E11" s="21">
         <v>1.0</v>
@@ -8092,20 +7923,19 @@
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E12" s="21">
         <v>1.0</v>
@@ -8133,20 +7963,19 @@
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E13" s="21">
         <v>1.0</v>
@@ -8174,20 +8003,19 @@
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E14" s="21">
         <v>0.0</v>
@@ -8196,7 +8024,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -8217,220 +8045,190 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="A15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="A16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="7">
         <v>1.0</v>
       </c>
       <c r="F16" s="20">
         <v>1.0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="H16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="A17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="7">
         <v>1.0</v>
       </c>
       <c r="F17" s="20">
         <v>1.0</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="L17" s="6" t="s">
-        <v>211</v>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="A18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="7">
         <v>1.0</v>
       </c>
       <c r="F18" s="20">
         <v>1.0</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="L18" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="H18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="A19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="7">
         <v>1.0</v>
       </c>
       <c r="F19" s="20">
         <v>1.0</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="L19" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="H19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="A20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="7">
         <v>1.0</v>
       </c>
       <c r="F20" s="20">
         <v>1.0</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="H20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="A21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="7">
         <v>1.0</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="20">
         <v>1.0</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
+      <c r="H21" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E22" s="21">
         <v>1.0</v>
@@ -8438,15 +8236,13 @@
       <c r="F22" s="23">
         <v>1.0</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="22" t="s">
-        <v>223</v>
-      </c>
+      <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -8462,60 +8258,98 @@
       <c r="X22" s="24"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="20"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="20"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="20"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="20"/>
-      <c r="H27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28">
-      <c r="C28" s="15"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="20"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29">
       <c r="C29" s="15"/>
@@ -12352,6 +12186,10 @@
     <row r="987">
       <c r="C987" s="15"/>
       <c r="F987" s="29"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="15"/>
+      <c r="F988" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
